--- a/biology/Botanique/Convolvulus_althaeoides_subsp._tenuissimus/Convolvulus_althaeoides_subsp._tenuissimus.xlsx
+++ b/biology/Botanique/Convolvulus_althaeoides_subsp._tenuissimus/Convolvulus_althaeoides_subsp._tenuissimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liseron très élégant, Convolvulus althaeoides subsp. tenuissimus, est une sous-espèce de plantes de la famille des Convolvulacées, de l'espèce Convolvulus althaeoides.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Basionyme : 
 Convolvulus tenuissimus Sm., in Sibth. &amp; Sm., Fl. Graec. prodr. vol. 1: 134. 1806.
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce se distingue par le cœur blanc de la corolle de la fleur et ses feuilles profondément palmatiséquées à 5, 7 ou 9 lobes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce se distingue par le cœur blanc de la corolle de la fleur et ses feuilles profondément palmatiséquées à 5, 7 ou 9 lobes.
 Ce liseron est originaire de Grèce et Bulgarie, on le trouve en France en Provence.
 </t>
         </is>
